--- a/tests_cases/TPO - PE-53.xlsx
+++ b/tests_cases/TPO - PE-53.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Aplicaciones\Proyectos\TestingAplicaciones-MatrixTesters-TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F14F21B-A5B1-4BC7-9712-EF57E46458C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715B0F66-3567-4EF7-B49A-00DBA84C1B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="1200" windowWidth="24270" windowHeight="11385" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="24270" windowHeight="11385" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="MT-09" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Matias Marquez</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Date of birth = 01/01/2005</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>1.0</t>
+  </si>
+  <si>
+    <t>Denise Posklinski</t>
   </si>
 </sst>
 </file>
@@ -514,6 +514,51 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,52 +574,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -896,7 +896,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,16 +923,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -944,27 +944,27 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="D2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="24"/>
+      <c r="B3" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="33"/>
+      <c r="E3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="32"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -1029,10 +1029,10 @@
       <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1045,52 +1045,52 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="28"/>
+      <c r="E8" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="16">
         <v>3</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="28"/>
+      <c r="E10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="19"/>
       <c r="D11" s="16">
         <v>4</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="28"/>
+      <c r="E11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="34"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1100,10 +1100,10 @@
       <c r="D12" s="16">
         <v>5</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="28"/>
+      <c r="E12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="34"/>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
       <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="28"/>
+      <c r="E13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="34"/>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1127,198 +1127,219 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="B15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:23" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="22"/>
+      <c r="B17" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="37"/>
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>1</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="B20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="B21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>3</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="B22" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>4</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
+      <c r="B23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>5</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
+      <c r="B24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>6</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="B25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>7</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
+      <c r="B26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>8</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>9</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30" t="s">
+      <c r="B28" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>10</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="A15:A16"/>
@@ -1335,27 +1356,6 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,16 +1394,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1415,25 +1415,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="D2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="33"/>
+      <c r="E3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="32"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -1498,10 +1498,10 @@
       <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1514,52 +1514,52 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="28"/>
+      <c r="E8" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="16">
         <v>3</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="28"/>
+      <c r="E10" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="19"/>
       <c r="D11" s="16">
         <v>4</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="28"/>
+      <c r="E11" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="34"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1569,10 +1569,10 @@
       <c r="D12" s="16">
         <v>5</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="28"/>
+      <c r="E12" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="34"/>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,10 +1582,10 @@
       <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="28"/>
+      <c r="E13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="34"/>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,156 +1596,174 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="B15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:23" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="22"/>
+      <c r="B17" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="37"/>
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>1</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="B20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="B21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>3</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="B22" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>4</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>5</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30" t="s">
+      <c r="B24" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>6</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="B25" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>7</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:F16"/>
     <mergeCell ref="D1:F1"/>
@@ -1759,24 +1777,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1784,21 +1784,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006CB1A51B3A996C44B977E632F6DEC33D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2bd25917a97534041ca7931abd8cbbac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="66b336d3-04c8-489c-ac96-6a14a2b4331d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="173f2ba09421de1668a77200cfb94d82" ns2:_="">
     <xsd:import namespace="66b336d3-04c8-489c-ac96-6a14a2b4331d"/>
@@ -1930,24 +1915,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A42DB-190E-47E2-A19E-CF7C61BA992E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1963,4 +1946,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests_cases/TPO - PE-53.xlsx
+++ b/tests_cases/TPO - PE-53.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Aplicaciones\Proyectos\TestingAplicaciones-MatrixTesters-TPO\tests_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DMPP\Desktop\Progr\Testing\Tp grupal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715B0F66-3567-4EF7-B49A-00DBA84C1B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8011293-905E-40C5-9697-495F8F78F618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="24270" windowHeight="11385" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="MT-09" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="89">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -99,51 +99,18 @@
     <t>Matias Marquez</t>
   </si>
   <si>
-    <t>Date of birth = 01/01/2005</t>
-  </si>
-  <si>
-    <t>Address = Calle</t>
-  </si>
-  <si>
-    <t>Phone = 12 345 678</t>
-  </si>
-  <si>
-    <t>Completar campo "Date of birth"</t>
-  </si>
-  <si>
-    <t>Completar campo "Address"</t>
-  </si>
-  <si>
-    <t>Completar campo "Phone"</t>
-  </si>
-  <si>
     <t>Dato de entrada 1</t>
   </si>
   <si>
     <t>Dato de entrada 2</t>
   </si>
   <si>
-    <t>Dato de entrada 3</t>
-  </si>
-  <si>
-    <t>Dato de entrada 4</t>
-  </si>
-  <si>
-    <t>Dato de entrada 5</t>
-  </si>
-  <si>
-    <t>Dato de entrada 6</t>
-  </si>
-  <si>
     <t>MT-09</t>
   </si>
   <si>
     <t>Tener un usuario creado</t>
   </si>
   <si>
-    <t>El DNI no fue un campo pedido para la creación de la cuenta</t>
-  </si>
-  <si>
     <t>Second Mail = prueba@prueba.com</t>
   </si>
   <si>
@@ -156,9 +123,6 @@
     <t>PE-53</t>
   </si>
   <si>
-    <t>Estar en la ventana Update you account</t>
-  </si>
-  <si>
     <t>Completar campo "Current Password"</t>
   </si>
   <si>
@@ -174,18 +138,6 @@
     <t>Completar campo "Confirm Password"</t>
   </si>
   <si>
-    <t>Completar campo "Second Email"</t>
-  </si>
-  <si>
-    <t>Clic en casilla "Sign up our newsletter!"</t>
-  </si>
-  <si>
-    <t>Casilla tildada</t>
-  </si>
-  <si>
-    <t>Clic en casilla "Receive special offers from out partners!"</t>
-  </si>
-  <si>
     <t>Clic en Save</t>
   </si>
   <si>
@@ -195,9 +147,6 @@
     <t>MT-10</t>
   </si>
   <si>
-    <t>Actualización de cuenta - Intentar modificar datos bloqueados</t>
-  </si>
-  <si>
     <t>First name = Prueba</t>
   </si>
   <si>
@@ -207,9 +156,6 @@
     <t>Email = prueba@prueba.com</t>
   </si>
   <si>
-    <t>Intentar actualizar datos bloqueados</t>
-  </si>
-  <si>
     <t>Completar campo "First name"</t>
   </si>
   <si>
@@ -226,13 +172,145 @@
   </si>
   <si>
     <t>Denise Posklinski</t>
+  </si>
+  <si>
+    <t>Executions</t>
+  </si>
+  <si>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Regression 2</t>
+  </si>
+  <si>
+    <t>Regression 3</t>
+  </si>
+  <si>
+    <t>Regression 4</t>
+  </si>
+  <si>
+    <t>Tester: Denise Posklinski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester: </t>
+  </si>
+  <si>
+    <t>Tester:</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Not executed</t>
+  </si>
+  <si>
+    <t>Old Password = user123</t>
+  </si>
+  <si>
+    <t>New Password = user456</t>
+  </si>
+  <si>
+    <t>Address = prueba2</t>
+  </si>
+  <si>
+    <t>Phone = 12345679</t>
+  </si>
+  <si>
+    <t>Sec Mail = prueba2@prueba.com</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Estar en el sitio web</t>
+  </si>
+  <si>
+    <t>Se abre una nueva página</t>
+  </si>
+  <si>
+    <t>Posar el mouse sobre el mensaje "Hello, name"</t>
+  </si>
+  <si>
+    <t>Se despliega un menú con opciones</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción "Your profile"</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción "Change password"</t>
+  </si>
+  <si>
+    <t>Se completa el campo seleccionado</t>
+  </si>
+  <si>
+    <t>Completar el campo "Old password" con dato 1</t>
+  </si>
+  <si>
+    <t>Completar el campo "New password" con dato 2</t>
+  </si>
+  <si>
+    <t>Completar el campo "Confirm password" con dato 2</t>
+  </si>
+  <si>
+    <t>Tocar botón "Save"</t>
+  </si>
+  <si>
+    <t>Tocar botón "Go to profile"</t>
+  </si>
+  <si>
+    <t>Se abre la página anterior con opciones</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción "Edit profile"</t>
+  </si>
+  <si>
+    <t>Birth date = 08/11/1990</t>
+  </si>
+  <si>
+    <t>Completar el campo "Phone" con dato 4</t>
+  </si>
+  <si>
+    <t>Completar el campo "Second Email" con dato 5</t>
+  </si>
+  <si>
+    <t>Completar el campo con "Birth date" con dato 6</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Completar el campo "Address" con dato 3</t>
+  </si>
+  <si>
+    <t>Se guardan los cambios</t>
+  </si>
+  <si>
+    <t>Intentar modificar cuenta bloqueada</t>
+  </si>
+  <si>
+    <t>Se intenta actualizar una cuenta bloqueada</t>
+  </si>
+  <si>
+    <t>Tener una cuenta bloqueada</t>
+  </si>
+  <si>
+    <t>Suspended</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +375,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +418,18 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -401,19 +519,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right/>
@@ -449,13 +554,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,7 +658,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -508,14 +685,56 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -524,21 +743,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,35 +754,49 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C558A088-66ED-4D97-B86E-4769E988BE41}"/>
     <cellStyle name="Note 2" xfId="2" xr:uid="{4BAC1941-5BF2-43E8-B9DC-8FEA0AFAB3F9}"/>
@@ -893,29 +1111,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -923,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="D1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -944,27 +1163,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="D2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="39"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="32"/>
+      <c r="E3" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="34"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -991,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1029,12 +1246,12 @@
       <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -1045,65 +1262,64 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="34"/>
+      <c r="E8" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="22">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>33</v>
+      <c r="B9" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="28"/>
+      <c r="E9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="16">
         <v>3</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="34"/>
+      <c r="E10" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="19"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="16">
         <v>4</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="16">
         <v>5</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="34"/>
+      <c r="E12" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="30"/>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1113,10 +1329,10 @@
       <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="34"/>
+      <c r="E13" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="33"/>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1127,235 +1343,626 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:23" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="B15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="H15" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+    </row>
+    <row r="16" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="17" t="s">
+      <c r="B16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="37"/>
-    </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="F16" s="27"/>
+      <c r="H16" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="44"/>
+    </row>
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="44"/>
+    </row>
+    <row r="18" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B18" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="29" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-    </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="H18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="H19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>1</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="H20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>2</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="H21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>3</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="H22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>4</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
+      <c r="H23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>5</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="H24" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>6</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="H25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>7</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="H26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+    </row>
+    <row r="27" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>8</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
+      <c r="H27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+    </row>
+    <row r="28" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>9</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
+      <c r="H28" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+    </row>
+    <row r="29" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>10</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="H29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+    </row>
+    <row r="30" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>13</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="H30" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+    </row>
+    <row r="31" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>14</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="37"/>
+      <c r="H31" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+    </row>
+    <row r="32" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>15</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
+      <c r="H32" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>16</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
+      <c r="H33" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>17</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="48"/>
+      <c r="D34" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="49"/>
+      <c r="F34" s="48"/>
+      <c r="H34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="65">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B15:F16"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1364,29 +1971,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFBDA37-4BF6-468C-A347-0EE13F45FA9F}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1394,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="D1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1415,25 +2023,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="D2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="32"/>
+      <c r="E3" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="34"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -1498,12 +2106,12 @@
       <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -1514,53 +2122,53 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="34"/>
+      <c r="E8" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="28"/>
+      <c r="E9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="16">
         <v>3</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="34"/>
+      <c r="E10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="19"/>
       <c r="D11" s="16">
         <v>4</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
@@ -1569,10 +2177,10 @@
       <c r="D12" s="16">
         <v>5</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="34"/>
+      <c r="E12" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="33"/>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,10 +2190,10 @@
       <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="34"/>
+      <c r="E13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="33"/>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,176 +2204,309 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:23" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="B15" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="H15" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="17" t="s">
+      <c r="B16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="37"/>
-    </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="F16" s="27"/>
+      <c r="H16" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="44"/>
+    </row>
+    <row r="17" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="44"/>
+    </row>
+    <row r="18" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B18" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="29" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-    </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="H18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="H19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>1</v>
-      </c>
-      <c r="B20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="H20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>3</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="H21" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>2</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>3</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="H22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>4</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
+      <c r="H23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>5</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="H24" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>6</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
         <v>7</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
+      <c r="B25" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="H25" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:F16"/>
+  <mergeCells count="39">
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:C3"/>
@@ -1777,6 +2518,24 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1784,6 +2543,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006CB1A51B3A996C44B977E632F6DEC33D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2bd25917a97534041ca7931abd8cbbac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="66b336d3-04c8-489c-ac96-6a14a2b4331d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="173f2ba09421de1668a77200cfb94d82" ns2:_="">
     <xsd:import namespace="66b336d3-04c8-489c-ac96-6a14a2b4331d"/>
@@ -1915,22 +2689,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A42DB-190E-47E2-A19E-CF7C61BA992E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1946,21 +2722,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests_cases/TPO - PE-53.xlsx
+++ b/tests_cases/TPO - PE-53.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DMPP\Desktop\Progr\Testing\Tp grupal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8011293-905E-40C5-9697-495F8F78F618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E4C969-91E1-4ACB-8B2A-6AC7D0257ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="MT-09" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="88">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Tener un usuario creado</t>
   </si>
   <si>
-    <t>Second Mail = prueba@prueba.com</t>
-  </si>
-  <si>
     <t>Actualizar una cuenta existente</t>
   </si>
   <si>
@@ -126,12 +123,6 @@
     <t>Completar campo "Current Password"</t>
   </si>
   <si>
-    <t>Password old = userold123</t>
-  </si>
-  <si>
-    <t>Password new = usernew123</t>
-  </si>
-  <si>
     <t>Completar campo "New Password"</t>
   </si>
   <si>
@@ -168,9 +159,6 @@
     <t>Completar campo "Email"</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Denise Posklinski</t>
   </si>
   <si>
@@ -304,6 +292,15 @@
   </si>
   <si>
     <t>Suspended</t>
+  </si>
+  <si>
+    <t>Second Mail = prueba2@prueba.com</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
 </sst>
 </file>
@@ -706,6 +703,60 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,69 +772,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,6 +786,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1113,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,11 +1144,11 @@
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="D1" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1163,25 +1160,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="D2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="34"/>
+      <c r="E3" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="49"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -1208,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1246,10 +1243,10 @@
       <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1262,10 +1259,10 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="33"/>
+      <c r="E8" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
@@ -1278,26 +1275,26 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="30"/>
+      <c r="E9" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="16">
         <v>3</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="33"/>
+      <c r="E10" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -1306,20 +1303,20 @@
       <c r="D11" s="16">
         <v>4</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="33"/>
+      <c r="E11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="19"/>
       <c r="D12" s="16">
         <v>5</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="30"/>
+      <c r="E12" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="39"/>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,10 +1326,10 @@
       <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="33"/>
+      <c r="E13" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="38"/>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1346,130 +1343,130 @@
       <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="H15" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
+      <c r="B15" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="H15" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="27"/>
+      <c r="B16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="45"/>
       <c r="D16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="H16" s="44" t="s">
+      <c r="F16" s="45"/>
+      <c r="H16" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="33"/>
+    </row>
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44" t="s">
+      <c r="I17" s="33"/>
+      <c r="J17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44" t="s">
+      <c r="K17" s="33"/>
+      <c r="L17" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="44"/>
-    </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="44"/>
+      <c r="O17" s="33"/>
     </row>
     <row r="18" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
       <c r="H18" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
+      <c r="B19" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="26"/>
       <c r="H19" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -1482,20 +1479,20 @@
       <c r="A20" s="5">
         <v>2</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
+      <c r="B20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="26"/>
       <c r="H20" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
@@ -1508,20 +1505,20 @@
       <c r="A21" s="5">
         <v>3</v>
       </c>
-      <c r="B21" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="35" t="s">
+      <c r="B21" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="26"/>
       <c r="H21" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
@@ -1534,20 +1531,20 @@
       <c r="A22" s="5">
         <v>5</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+      <c r="B22" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26"/>
       <c r="H22" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
@@ -1560,20 +1557,20 @@
       <c r="A23" s="5">
         <v>6</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
+      <c r="B23" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26"/>
       <c r="H23" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
@@ -1586,20 +1583,20 @@
       <c r="A24" s="5">
         <v>7</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
+      <c r="B24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26"/>
       <c r="H24" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
@@ -1612,20 +1609,20 @@
       <c r="A25" s="5">
         <v>8</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
+      <c r="B25" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="26"/>
       <c r="H25" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
@@ -1638,20 +1635,20 @@
       <c r="A26" s="5">
         <v>9</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
+      <c r="B26" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="26"/>
       <c r="H26" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
@@ -1664,20 +1661,20 @@
       <c r="A27" s="5">
         <v>10</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
+      <c r="B27" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="26"/>
       <c r="H27" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
@@ -1690,20 +1687,20 @@
       <c r="A28" s="5">
         <v>11</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
+      <c r="B28" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="26"/>
       <c r="H28" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
@@ -1716,20 +1713,20 @@
       <c r="A29" s="5">
         <v>12</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
+      <c r="B29" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="26"/>
       <c r="H29" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
@@ -1742,20 +1739,20 @@
       <c r="A30" s="5">
         <v>13</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
+      <c r="B30" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="26"/>
       <c r="H30" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
@@ -1768,20 +1765,20 @@
       <c r="A31" s="5">
         <v>14</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="37"/>
+      <c r="B31" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="26"/>
       <c r="H31" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
@@ -1794,20 +1791,20 @@
       <c r="A32" s="5">
         <v>15</v>
       </c>
-      <c r="B32" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
+      <c r="B32" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="26"/>
       <c r="H32" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
@@ -1820,20 +1817,20 @@
       <c r="A33" s="5">
         <v>16</v>
       </c>
-      <c r="B33" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
+      <c r="B33" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="26"/>
       <c r="H33" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
@@ -1846,20 +1843,20 @@
       <c r="A34" s="5">
         <v>17</v>
       </c>
-      <c r="B34" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="48"/>
+      <c r="B34" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31"/>
       <c r="H34" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
@@ -1869,66 +1866,53 @@
       <c r="O34" s="23"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="B18:C18"/>
@@ -1945,24 +1929,37 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1973,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFBDA37-4BF6-468C-A347-0EE13F45FA9F}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,16 +1999,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="D1" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2023,25 +2020,25 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="D2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="34"/>
+      <c r="E3" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="49"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
@@ -2106,10 +2103,10 @@
       <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -2122,10 +2119,10 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="33"/>
+      <c r="E8" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -2138,36 +2135,36 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="30"/>
+      <c r="E9" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="16">
         <v>3</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="33"/>
+      <c r="E10" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="19"/>
       <c r="D11" s="16">
         <v>4</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="50"/>
+      <c r="E11" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="53"/>
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2177,10 +2174,10 @@
       <c r="D12" s="16">
         <v>5</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="33"/>
+      <c r="E12" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="38"/>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2190,10 +2187,10 @@
       <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="33"/>
+      <c r="E13" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="38"/>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2207,130 +2204,130 @@
       <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="H15" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
+      <c r="B15" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="H15" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="27"/>
+      <c r="B16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="45"/>
       <c r="D16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="H16" s="44" t="s">
+      <c r="F16" s="45"/>
+      <c r="H16" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="33"/>
+    </row>
+    <row r="17" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44" t="s">
+      <c r="I17" s="33"/>
+      <c r="J17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44" t="s">
+      <c r="K17" s="33"/>
+      <c r="L17" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="44"/>
-    </row>
-    <row r="17" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="44"/>
+      <c r="O17" s="33"/>
     </row>
     <row r="18" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
       <c r="H18" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="35" t="s">
+      <c r="B19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="26"/>
       <c r="H19" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -2343,20 +2340,20 @@
       <c r="A20" s="5">
         <v>2</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="35" t="s">
+      <c r="B20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="26"/>
       <c r="H20" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
@@ -2369,20 +2366,20 @@
       <c r="A21" s="5">
         <v>3</v>
       </c>
-      <c r="B21" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="35" t="s">
+      <c r="B21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="26"/>
       <c r="H21" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
@@ -2395,20 +2392,20 @@
       <c r="A22" s="5">
         <v>4</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+      <c r="B22" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26"/>
       <c r="H22" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
@@ -2421,20 +2418,20 @@
       <c r="A23" s="5">
         <v>5</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
+      <c r="B23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26"/>
       <c r="H23" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
@@ -2447,20 +2444,20 @@
       <c r="A24" s="5">
         <v>6</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
+      <c r="B24" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26"/>
       <c r="H24" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
@@ -2473,20 +2470,20 @@
       <c r="A25" s="5">
         <v>7</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
+      <c r="B25" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="26"/>
       <c r="H25" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
@@ -2497,15 +2494,24 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
@@ -2518,24 +2524,15 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2549,15 +2546,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006CB1A51B3A996C44B977E632F6DEC33D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2bd25917a97534041ca7931abd8cbbac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="66b336d3-04c8-489c-ac96-6a14a2b4331d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="173f2ba09421de1668a77200cfb94d82" ns2:_="">
     <xsd:import namespace="66b336d3-04c8-489c-ac96-6a14a2b4331d"/>
@@ -2689,6 +2677,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
   <ds:schemaRefs>
@@ -2699,14 +2696,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A42DB-190E-47E2-A19E-CF7C61BA992E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2722,4 +2711,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>